--- a/quanlysinhvien/sinhviennienche/dsSinhVienNC.xlsx
+++ b/quanlysinhvien/sinhviennienche/dsSinhVienNC.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -111,6 +111,24 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>SV006</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>11-10-1998</t>
+  </si>
+  <si>
+    <t>nguyenb@gmail.com</t>
+  </si>
+  <si>
+    <t>Bắc Ninh</t>
   </si>
 </sst>
 </file>
@@ -161,7 +179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:M3"/>
+  <dimension ref="B1:M4"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -213,7 +231,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -269,6 +287,41 @@
         <v>0.0</v>
       </c>
       <c r="L3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.0</v>
       </c>
     </row>
